--- a/data/pca/factorExposure/factorExposure_2016-03-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01216068844781845</v>
+        <v>-0.01589896942401907</v>
       </c>
       <c r="C2">
-        <v>-0.05807877164233524</v>
+        <v>0.04129235361060846</v>
       </c>
       <c r="D2">
-        <v>-0.0359511986445446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07055203477812098</v>
+      </c>
+      <c r="E2">
+        <v>-0.1065073885316739</v>
+      </c>
+      <c r="F2">
+        <v>-0.0759602484400205</v>
+      </c>
+      <c r="G2">
+        <v>0.02931863302708598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04265397376986486</v>
+        <v>-0.02688080291974429</v>
       </c>
       <c r="C3">
-        <v>-0.1212948591265048</v>
+        <v>0.06665009493664613</v>
       </c>
       <c r="D3">
-        <v>-0.08069776875781366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0782097491198991</v>
+      </c>
+      <c r="E3">
+        <v>-0.06315633972376986</v>
+      </c>
+      <c r="F3">
+        <v>0.03223795840823094</v>
+      </c>
+      <c r="G3">
+        <v>0.03418326936412336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06160885696917597</v>
+        <v>-0.06073823079693709</v>
       </c>
       <c r="C4">
-        <v>-0.06745669714809056</v>
+        <v>0.06543648899741589</v>
       </c>
       <c r="D4">
-        <v>-0.03245035149835813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0659750808834446</v>
+      </c>
+      <c r="E4">
+        <v>-0.09916886776169635</v>
+      </c>
+      <c r="F4">
+        <v>-0.02817684463848769</v>
+      </c>
+      <c r="G4">
+        <v>0.07710304184807847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03932208342748644</v>
+        <v>-0.03748299829349681</v>
       </c>
       <c r="C6">
-        <v>-0.03786041447448345</v>
+        <v>0.02751601165970009</v>
       </c>
       <c r="D6">
-        <v>-0.03023268299432085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06941823783206386</v>
+      </c>
+      <c r="E6">
+        <v>-0.09187393217980849</v>
+      </c>
+      <c r="F6">
+        <v>-0.01909297943424311</v>
+      </c>
+      <c r="G6">
+        <v>0.05805343148584682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02695596978620132</v>
+        <v>-0.02132453636051554</v>
       </c>
       <c r="C7">
-        <v>-0.04149653505490834</v>
+        <v>0.03709937113659678</v>
       </c>
       <c r="D7">
-        <v>0.004205648827091064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04612447635225281</v>
+      </c>
+      <c r="E7">
+        <v>-0.07720287651643359</v>
+      </c>
+      <c r="F7">
+        <v>-0.0540176584914671</v>
+      </c>
+      <c r="G7">
+        <v>0.1004446329259694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007940039617753089</v>
+        <v>-0.007430294836067155</v>
       </c>
       <c r="C8">
-        <v>-0.04238209612586909</v>
+        <v>0.03506227590166665</v>
       </c>
       <c r="D8">
-        <v>-0.02507603269596511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04174193000523817</v>
+      </c>
+      <c r="E8">
+        <v>-0.0600694341385875</v>
+      </c>
+      <c r="F8">
+        <v>-0.0133382312288334</v>
+      </c>
+      <c r="G8">
+        <v>0.03743188326361839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03842080772178708</v>
+        <v>-0.04158473236558731</v>
       </c>
       <c r="C9">
-        <v>-0.04838195130153796</v>
+        <v>0.0511038412526172</v>
       </c>
       <c r="D9">
-        <v>-0.01698648522880019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04690265176691184</v>
+      </c>
+      <c r="E9">
+        <v>-0.07678212006947439</v>
+      </c>
+      <c r="F9">
+        <v>-0.04501770396073179</v>
+      </c>
+      <c r="G9">
+        <v>0.07922430777132002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07252862559286015</v>
+        <v>-0.09930870644281112</v>
       </c>
       <c r="C10">
-        <v>0.1904749977719268</v>
+        <v>-0.2016677649419918</v>
       </c>
       <c r="D10">
-        <v>0.002197677937251726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009769710405280727</v>
+      </c>
+      <c r="E10">
+        <v>-0.03509574295954655</v>
+      </c>
+      <c r="F10">
+        <v>-0.01671489489798959</v>
+      </c>
+      <c r="G10">
+        <v>0.042290812472289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04313041758173461</v>
+        <v>-0.03785152181406756</v>
       </c>
       <c r="C11">
-        <v>-0.05179115803951217</v>
+        <v>0.04764870541665316</v>
       </c>
       <c r="D11">
-        <v>-0.01552010109479394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03409290354676344</v>
+      </c>
+      <c r="E11">
+        <v>-0.03257937350359839</v>
+      </c>
+      <c r="F11">
+        <v>-0.02923361523343496</v>
+      </c>
+      <c r="G11">
+        <v>0.06936052952680516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04591813823243151</v>
+        <v>-0.04006277641389683</v>
       </c>
       <c r="C12">
-        <v>-0.04710919415804025</v>
+        <v>0.04600824036113822</v>
       </c>
       <c r="D12">
-        <v>-0.001774441283929677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0291420374951813</v>
+      </c>
+      <c r="E12">
+        <v>-0.03995927243154697</v>
+      </c>
+      <c r="F12">
+        <v>-0.03111876650766685</v>
+      </c>
+      <c r="G12">
+        <v>0.06568872177897279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01601709718020121</v>
+        <v>-0.01495523087905429</v>
       </c>
       <c r="C13">
-        <v>-0.05486521606930013</v>
+        <v>0.04277395032310226</v>
       </c>
       <c r="D13">
-        <v>-0.008326367603331995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05666186465782335</v>
+      </c>
+      <c r="E13">
+        <v>-0.1126748764216522</v>
+      </c>
+      <c r="F13">
+        <v>-0.04554566904791633</v>
+      </c>
+      <c r="G13">
+        <v>0.09147238555154712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0108396181359809</v>
+        <v>-0.00761323766725897</v>
       </c>
       <c r="C14">
-        <v>-0.03578131238909669</v>
+        <v>0.03038864244887397</v>
       </c>
       <c r="D14">
-        <v>0.001868106007487824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03171778497148343</v>
+      </c>
+      <c r="E14">
+        <v>-0.06448109943510298</v>
+      </c>
+      <c r="F14">
+        <v>-0.06333989057415172</v>
+      </c>
+      <c r="G14">
+        <v>0.07984403994618015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001782637277585796</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006337653888624843</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009627313629460718</v>
+      </c>
+      <c r="E15">
+        <v>-0.007354367789014181</v>
+      </c>
+      <c r="F15">
+        <v>-0.005424849898944937</v>
+      </c>
+      <c r="G15">
+        <v>0.007686554065496923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04090353791886979</v>
+        <v>-0.03610416598327403</v>
       </c>
       <c r="C16">
-        <v>-0.04867076624761882</v>
+        <v>0.04455876171028178</v>
       </c>
       <c r="D16">
-        <v>-0.004297211864647785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02894737743795074</v>
+      </c>
+      <c r="E16">
+        <v>-0.0473013771403548</v>
+      </c>
+      <c r="F16">
+        <v>-0.04181099827545221</v>
+      </c>
+      <c r="G16">
+        <v>0.05629489419537777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02635293197162153</v>
+        <v>-0.01888143546289256</v>
       </c>
       <c r="C19">
-        <v>-0.06176253625725334</v>
+        <v>0.04516746587964272</v>
       </c>
       <c r="D19">
-        <v>-0.08637219108582553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09773229929967771</v>
+      </c>
+      <c r="E19">
+        <v>-0.1110716942042288</v>
+      </c>
+      <c r="F19">
+        <v>-0.0505182714779104</v>
+      </c>
+      <c r="G19">
+        <v>0.03488861714358114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02004523339649712</v>
+        <v>-0.01629159197069121</v>
       </c>
       <c r="C20">
-        <v>-0.05014001751639011</v>
+        <v>0.04043253747611628</v>
       </c>
       <c r="D20">
-        <v>-0.008171101118547094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04163070462268638</v>
+      </c>
+      <c r="E20">
+        <v>-0.08644659410788966</v>
+      </c>
+      <c r="F20">
+        <v>-0.04468475045652821</v>
+      </c>
+      <c r="G20">
+        <v>0.06353688883473918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01336344157712596</v>
+        <v>-0.013232276213376</v>
       </c>
       <c r="C21">
-        <v>-0.05608493261695355</v>
+        <v>0.04429980731911137</v>
       </c>
       <c r="D21">
-        <v>-0.03164107480003903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06806029879493156</v>
+      </c>
+      <c r="E21">
+        <v>-0.1361387875406616</v>
+      </c>
+      <c r="F21">
+        <v>-0.07236926189582429</v>
+      </c>
+      <c r="G21">
+        <v>0.09293680692272357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002854635273396387</v>
+        <v>-0.004604412791680394</v>
       </c>
       <c r="C22">
-        <v>-0.001238343560255273</v>
+        <v>0.02953229317748236</v>
       </c>
       <c r="D22">
-        <v>-0.009104173609692049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05887442693993569</v>
+      </c>
+      <c r="E22">
+        <v>-0.06350528362824195</v>
+      </c>
+      <c r="F22">
+        <v>0.02833175877197232</v>
+      </c>
+      <c r="G22">
+        <v>0.05353634402889767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002847083742350922</v>
+        <v>-0.004690623635639255</v>
       </c>
       <c r="C23">
-        <v>-0.001233935220109088</v>
+        <v>0.02955407262059502</v>
       </c>
       <c r="D23">
-        <v>-0.009033818120770927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05808468174680584</v>
+      </c>
+      <c r="E23">
+        <v>-0.06360715364652154</v>
+      </c>
+      <c r="F23">
+        <v>0.02846050255658583</v>
+      </c>
+      <c r="G23">
+        <v>0.0536410438328575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03806463837394462</v>
+        <v>-0.03718470128197088</v>
       </c>
       <c r="C24">
-        <v>-0.04929328444420707</v>
+        <v>0.05256339414813208</v>
       </c>
       <c r="D24">
-        <v>-0.009137049448656207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02996743439795661</v>
+      </c>
+      <c r="E24">
+        <v>-0.05114700710664063</v>
+      </c>
+      <c r="F24">
+        <v>-0.04243817962898865</v>
+      </c>
+      <c r="G24">
+        <v>0.0669591806505519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04908872408563682</v>
+        <v>-0.0445315214995703</v>
       </c>
       <c r="C25">
-        <v>-0.05925781404600209</v>
+        <v>0.05555540044812908</v>
       </c>
       <c r="D25">
-        <v>0.001373488635455076</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02693682167156831</v>
+      </c>
+      <c r="E25">
+        <v>-0.0414771796662738</v>
+      </c>
+      <c r="F25">
+        <v>-0.03280238227274746</v>
+      </c>
+      <c r="G25">
+        <v>0.08038192902724869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01894135990959156</v>
+        <v>-0.0174978019984868</v>
       </c>
       <c r="C26">
-        <v>-0.01764397144127727</v>
+        <v>0.01691157990205704</v>
       </c>
       <c r="D26">
-        <v>-0.007542384871940731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03044781507197871</v>
+      </c>
+      <c r="E26">
+        <v>-0.05810517903945531</v>
+      </c>
+      <c r="F26">
+        <v>-0.0475679946863348</v>
+      </c>
+      <c r="G26">
+        <v>0.04673686901302928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09089006787220369</v>
+        <v>-0.136029734397144</v>
       </c>
       <c r="C28">
-        <v>0.2570831275943747</v>
+        <v>-0.2598178093991507</v>
       </c>
       <c r="D28">
-        <v>0.00618997343634253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0259711458922693</v>
+      </c>
+      <c r="E28">
+        <v>-0.05581346462716451</v>
+      </c>
+      <c r="F28">
+        <v>-0.02641740827807047</v>
+      </c>
+      <c r="G28">
+        <v>0.05718124976439051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009064515144498632</v>
+        <v>-0.008047527402621994</v>
       </c>
       <c r="C29">
-        <v>-0.03244433961725444</v>
+        <v>0.02869384079447869</v>
       </c>
       <c r="D29">
-        <v>0.008462480569749549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02379940718733681</v>
+      </c>
+      <c r="E29">
+        <v>-0.06338891865645455</v>
+      </c>
+      <c r="F29">
+        <v>-0.05457317414876078</v>
+      </c>
+      <c r="G29">
+        <v>0.08510537099500674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04594964215946395</v>
+        <v>-0.04516083568979039</v>
       </c>
       <c r="C30">
-        <v>-0.05080858176304946</v>
+        <v>0.0567674429005306</v>
       </c>
       <c r="D30">
-        <v>-0.08057460274337871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1102347746134667</v>
+      </c>
+      <c r="E30">
+        <v>-0.08631824413273212</v>
+      </c>
+      <c r="F30">
+        <v>-0.0502478406052406</v>
+      </c>
+      <c r="G30">
+        <v>0.05829209424073574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06163177570771819</v>
+        <v>-0.0600814786052444</v>
       </c>
       <c r="C31">
-        <v>-0.04646622990859545</v>
+        <v>0.06079801935495244</v>
       </c>
       <c r="D31">
-        <v>0.04132936384940993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01113085937486876</v>
+      </c>
+      <c r="E31">
+        <v>-0.07647241804628543</v>
+      </c>
+      <c r="F31">
+        <v>-0.01087144202960341</v>
+      </c>
+      <c r="G31">
+        <v>0.07350452303640287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003967438009300674</v>
+        <v>-0.008875751316455648</v>
       </c>
       <c r="C32">
-        <v>-0.04106567413764743</v>
+        <v>0.03550381394612679</v>
       </c>
       <c r="D32">
-        <v>-0.05786760566422415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06086815232010312</v>
+      </c>
+      <c r="E32">
+        <v>-0.06457378018815721</v>
+      </c>
+      <c r="F32">
+        <v>-0.05379734383335637</v>
+      </c>
+      <c r="G32">
+        <v>0.06141741872316699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03463693249426724</v>
+        <v>-0.02879606489757374</v>
       </c>
       <c r="C33">
-        <v>-0.05987112440418994</v>
+        <v>0.05276937420347946</v>
       </c>
       <c r="D33">
-        <v>-0.03917788777162687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07662577210800758</v>
+      </c>
+      <c r="E33">
+        <v>-0.09206378418101503</v>
+      </c>
+      <c r="F33">
+        <v>-0.0508582393644306</v>
+      </c>
+      <c r="G33">
+        <v>0.1006838153499103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04555458913623891</v>
+        <v>-0.04169031194000539</v>
       </c>
       <c r="C34">
-        <v>-0.06539342523150524</v>
+        <v>0.06285835715906077</v>
       </c>
       <c r="D34">
-        <v>-0.02489276514454847</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04012540542105266</v>
+      </c>
+      <c r="E34">
+        <v>-0.02298988769430936</v>
+      </c>
+      <c r="F34">
+        <v>-0.0435330009894172</v>
+      </c>
+      <c r="G34">
+        <v>0.07377786734643504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01801211669054901</v>
+        <v>-0.01579953925349246</v>
       </c>
       <c r="C36">
-        <v>-0.01741004383196926</v>
+        <v>0.0137216078678627</v>
       </c>
       <c r="D36">
-        <v>0.0003592431593809172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02930841306742663</v>
+      </c>
+      <c r="E36">
+        <v>-0.06641304250968158</v>
+      </c>
+      <c r="F36">
+        <v>-0.03953704818696192</v>
+      </c>
+      <c r="G36">
+        <v>0.0645989368670918</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02995921002428982</v>
+        <v>-0.02379329083186793</v>
       </c>
       <c r="C38">
-        <v>-0.03167875207281019</v>
+        <v>0.02414403358578096</v>
       </c>
       <c r="D38">
-        <v>0.01478121959863326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02354525948566159</v>
+      </c>
+      <c r="E38">
+        <v>-0.05664061824238458</v>
+      </c>
+      <c r="F38">
+        <v>-0.03080346304835588</v>
+      </c>
+      <c r="G38">
+        <v>0.04344193588961867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04838787247825319</v>
+        <v>-0.04299712268326499</v>
       </c>
       <c r="C39">
-        <v>-0.06054571802776999</v>
+        <v>0.0618030166571466</v>
       </c>
       <c r="D39">
-        <v>-0.0222882285059346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05645951393827203</v>
+      </c>
+      <c r="E39">
+        <v>-0.05890289837742445</v>
+      </c>
+      <c r="F39">
+        <v>-0.06317790148902978</v>
+      </c>
+      <c r="G39">
+        <v>0.06436085202450731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01242704592128801</v>
+        <v>-0.01536546320269045</v>
       </c>
       <c r="C40">
-        <v>-0.05392643585289666</v>
+        <v>0.03894962267606409</v>
       </c>
       <c r="D40">
-        <v>-0.00816600802065996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03670417419787262</v>
+      </c>
+      <c r="E40">
+        <v>-0.09860569409493253</v>
+      </c>
+      <c r="F40">
+        <v>-0.02587108971488315</v>
+      </c>
+      <c r="G40">
+        <v>0.09596594996614291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02417383913727068</v>
+        <v>-0.02048845352655669</v>
       </c>
       <c r="C41">
-        <v>-0.01557706293770381</v>
+        <v>0.009997984152798964</v>
       </c>
       <c r="D41">
-        <v>-0.001071834245994887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02090274905141557</v>
+      </c>
+      <c r="E41">
+        <v>-0.06756843167477897</v>
+      </c>
+      <c r="F41">
+        <v>-0.03361868148790777</v>
+      </c>
+      <c r="G41">
+        <v>0.0500242249275979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04539098677209192</v>
+        <v>-0.03244605357753362</v>
       </c>
       <c r="C43">
-        <v>-0.03524690843523763</v>
+        <v>0.02489302077131379</v>
       </c>
       <c r="D43">
-        <v>-0.02171198221724918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05006078955854663</v>
+      </c>
+      <c r="E43">
+        <v>-0.08277209797289686</v>
+      </c>
+      <c r="F43">
+        <v>-0.0230992502792284</v>
+      </c>
+      <c r="G43">
+        <v>0.07118220675239416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01784842369887397</v>
+        <v>-0.01887447192709599</v>
       </c>
       <c r="C44">
-        <v>-0.0706151198197261</v>
+        <v>0.04862718788599925</v>
       </c>
       <c r="D44">
-        <v>-6.434534561203656e-05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03869277490990497</v>
+      </c>
+      <c r="E44">
+        <v>-0.09363616674645384</v>
+      </c>
+      <c r="F44">
+        <v>-0.05444689801902896</v>
+      </c>
+      <c r="G44">
+        <v>0.05423260230211607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01357920875433704</v>
+        <v>-0.01303644692119724</v>
       </c>
       <c r="C46">
-        <v>-0.02622824385105417</v>
+        <v>0.02868742464164775</v>
       </c>
       <c r="D46">
-        <v>0.00957045409021107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02190728024890353</v>
+      </c>
+      <c r="E46">
+        <v>-0.07604764693964428</v>
+      </c>
+      <c r="F46">
+        <v>-0.06140694330977755</v>
+      </c>
+      <c r="G46">
+        <v>0.07808092377385789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09164447287830346</v>
+        <v>-0.09393012214638134</v>
       </c>
       <c r="C47">
-        <v>-0.06553897908277868</v>
+        <v>0.0777580292652694</v>
       </c>
       <c r="D47">
-        <v>0.0455320443011716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01918720406469704</v>
+      </c>
+      <c r="E47">
+        <v>-0.06861758021649648</v>
+      </c>
+      <c r="F47">
+        <v>-0.01390050817354315</v>
+      </c>
+      <c r="G47">
+        <v>0.07516305530297764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02044911011121759</v>
+        <v>-0.01896600414263413</v>
       </c>
       <c r="C48">
-        <v>-0.0139539321501406</v>
+        <v>0.01609915141817068</v>
       </c>
       <c r="D48">
-        <v>0.01546868050800465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01713635575553296</v>
+      </c>
+      <c r="E48">
+        <v>-0.08056990762136317</v>
+      </c>
+      <c r="F48">
+        <v>-0.05287183466952471</v>
+      </c>
+      <c r="G48">
+        <v>0.06980949956778391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08516396633843396</v>
+        <v>-0.07318564863735393</v>
       </c>
       <c r="C50">
-        <v>-0.08167156235682345</v>
+        <v>0.07348641347587093</v>
       </c>
       <c r="D50">
-        <v>0.04317971398571591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001850276199001522</v>
+      </c>
+      <c r="E50">
+        <v>-0.08221140366640692</v>
+      </c>
+      <c r="F50">
+        <v>0.01742391864103156</v>
+      </c>
+      <c r="G50">
+        <v>0.08150144226706833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01640854034636227</v>
+        <v>-0.01220705564908973</v>
       </c>
       <c r="C51">
-        <v>-0.0475864608201625</v>
+        <v>0.03051038943094068</v>
       </c>
       <c r="D51">
-        <v>-0.04829273502730023</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06439627838162899</v>
+      </c>
+      <c r="E51">
+        <v>-0.06448610151741511</v>
+      </c>
+      <c r="F51">
+        <v>-0.05148109091407012</v>
+      </c>
+      <c r="G51">
+        <v>0.05285902356314549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08488949317747385</v>
+        <v>-0.09849209666884533</v>
       </c>
       <c r="C53">
-        <v>-0.07707642401564989</v>
+        <v>0.08405178241960184</v>
       </c>
       <c r="D53">
-        <v>0.06856048286338354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05937228539622923</v>
+      </c>
+      <c r="E53">
+        <v>-0.07208562808498784</v>
+      </c>
+      <c r="F53">
+        <v>-0.02066898335088689</v>
+      </c>
+      <c r="G53">
+        <v>0.07633876052861831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03712879172815375</v>
+        <v>-0.03099513775981273</v>
       </c>
       <c r="C54">
-        <v>-0.03405771569954352</v>
+        <v>0.03097817136223653</v>
       </c>
       <c r="D54">
-        <v>-0.001645246548183854</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03162254549686066</v>
+      </c>
+      <c r="E54">
+        <v>-0.06797146322568574</v>
+      </c>
+      <c r="F54">
+        <v>-0.05602457324240792</v>
+      </c>
+      <c r="G54">
+        <v>0.08292516956767586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08073254565608191</v>
+        <v>-0.09124993326626242</v>
       </c>
       <c r="C55">
-        <v>-0.05068404553971867</v>
+        <v>0.06533931483712772</v>
       </c>
       <c r="D55">
-        <v>0.07239568282386484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05911702975545479</v>
+      </c>
+      <c r="E55">
+        <v>-0.04870351598080178</v>
+      </c>
+      <c r="F55">
+        <v>0.0007271514942240823</v>
+      </c>
+      <c r="G55">
+        <v>0.05579765658490382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1538296618269227</v>
+        <v>-0.156031971174963</v>
       </c>
       <c r="C56">
-        <v>-0.07895905155112645</v>
+        <v>0.09841653557135979</v>
       </c>
       <c r="D56">
-        <v>0.06267904666494446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05245645360721184</v>
+      </c>
+      <c r="E56">
+        <v>-0.03822328849746067</v>
+      </c>
+      <c r="F56">
+        <v>0.01064384392987302</v>
+      </c>
+      <c r="G56">
+        <v>0.02425265281062987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04780199661689205</v>
+        <v>-0.03255025216337369</v>
       </c>
       <c r="C58">
-        <v>-0.02380397133592742</v>
+        <v>0.02493684631611837</v>
       </c>
       <c r="D58">
-        <v>-0.447405630819095</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3949473852937286</v>
+      </c>
+      <c r="E58">
+        <v>-0.535270740399759</v>
+      </c>
+      <c r="F58">
+        <v>0.3885486860003033</v>
+      </c>
+      <c r="G58">
+        <v>-0.5451941059500394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1230888400273204</v>
+        <v>-0.1389936863710323</v>
       </c>
       <c r="C59">
-        <v>0.2055930250944442</v>
+        <v>-0.1928762768310387</v>
       </c>
       <c r="D59">
-        <v>-0.02774924889424019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03080658268971834</v>
+      </c>
+      <c r="E59">
+        <v>-0.03027701369970356</v>
+      </c>
+      <c r="F59">
+        <v>-0.03188034865286137</v>
+      </c>
+      <c r="G59">
+        <v>-0.004579208298519591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2973295221157597</v>
+        <v>-0.2716604395852277</v>
       </c>
       <c r="C60">
-        <v>-0.1127580559127147</v>
+        <v>0.1023222350068855</v>
       </c>
       <c r="D60">
-        <v>-0.2149417349568044</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2361881627716486</v>
+      </c>
+      <c r="E60">
+        <v>0.2569578391383817</v>
+      </c>
+      <c r="F60">
+        <v>0.0846603141300652</v>
+      </c>
+      <c r="G60">
+        <v>0.04877226277183956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04649411028644217</v>
+        <v>-0.04413506932294722</v>
       </c>
       <c r="C61">
-        <v>-0.05973604412234872</v>
+        <v>0.05731844649525542</v>
       </c>
       <c r="D61">
-        <v>-0.01910699431803423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04688184306120968</v>
+      </c>
+      <c r="E61">
+        <v>-0.05712758976048827</v>
+      </c>
+      <c r="F61">
+        <v>-0.04545238543584098</v>
+      </c>
+      <c r="G61">
+        <v>0.0766595505477648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01793662503196593</v>
+        <v>-0.01790645082165925</v>
       </c>
       <c r="C63">
-        <v>-0.03432475404118605</v>
+        <v>0.03070785152632147</v>
       </c>
       <c r="D63">
-        <v>0.01684341258592505</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02055501539259762</v>
+      </c>
+      <c r="E63">
+        <v>-0.06937647913995293</v>
+      </c>
+      <c r="F63">
+        <v>-0.02789725975867179</v>
+      </c>
+      <c r="G63">
+        <v>0.07322299318801788</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05333636968750369</v>
+        <v>-0.05828040097590711</v>
       </c>
       <c r="C64">
-        <v>-0.04932722902120403</v>
+        <v>0.05827983981895792</v>
       </c>
       <c r="D64">
-        <v>-0.01032121995139503</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01421330826919314</v>
+      </c>
+      <c r="E64">
+        <v>-0.04769712645398538</v>
+      </c>
+      <c r="F64">
+        <v>-0.04463668540159251</v>
+      </c>
+      <c r="G64">
+        <v>0.05543273752803889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07881717467860651</v>
+        <v>-0.06515995478199658</v>
       </c>
       <c r="C65">
-        <v>-0.02639158969205479</v>
+        <v>0.02620951122332791</v>
       </c>
       <c r="D65">
-        <v>-0.05788667318841984</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09048989355776242</v>
+      </c>
+      <c r="E65">
+        <v>-0.05086761450445885</v>
+      </c>
+      <c r="F65">
+        <v>0.002844404345807926</v>
+      </c>
+      <c r="G65">
+        <v>0.01739343517796069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06149286710471251</v>
+        <v>-0.05454337580859623</v>
       </c>
       <c r="C66">
-        <v>-0.08017689466352709</v>
+        <v>0.07711829969705868</v>
       </c>
       <c r="D66">
-        <v>-0.04171744975812874</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08035002647451704</v>
+      </c>
+      <c r="E66">
+        <v>-0.0729395224978955</v>
+      </c>
+      <c r="F66">
+        <v>-0.05137494937228476</v>
+      </c>
+      <c r="G66">
+        <v>0.07468968632799074</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05043107905880354</v>
+        <v>-0.04404454831335752</v>
       </c>
       <c r="C67">
-        <v>-0.03181642008139496</v>
+        <v>0.02839096594894174</v>
       </c>
       <c r="D67">
-        <v>0.02348668545363767</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00515939137695748</v>
+      </c>
+      <c r="E67">
+        <v>-0.03350691809046406</v>
+      </c>
+      <c r="F67">
+        <v>-0.01939691229378785</v>
+      </c>
+      <c r="G67">
+        <v>0.03447681122361051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1262517526342193</v>
+        <v>-0.1473854715091266</v>
       </c>
       <c r="C68">
-        <v>0.2837455799280063</v>
+        <v>-0.2444980918492678</v>
       </c>
       <c r="D68">
-        <v>0.008646441486825581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01136431601451434</v>
+      </c>
+      <c r="E68">
+        <v>-0.04378736450676219</v>
+      </c>
+      <c r="F68">
+        <v>-0.004624441412035166</v>
+      </c>
+      <c r="G68">
+        <v>0.02592137962046459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09250459362631644</v>
+        <v>-0.08952646615087838</v>
       </c>
       <c r="C69">
-        <v>-0.07186384804551353</v>
+        <v>0.0893029481117381</v>
       </c>
       <c r="D69">
-        <v>0.04475334565039028</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008659159693965088</v>
+      </c>
+      <c r="E69">
+        <v>-0.06192110104999816</v>
+      </c>
+      <c r="F69">
+        <v>-0.04612096070136876</v>
+      </c>
+      <c r="G69">
+        <v>0.07486861185959183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1157903779525978</v>
+        <v>-0.1421491519141471</v>
       </c>
       <c r="C71">
-        <v>0.2595783738514509</v>
+        <v>-0.2447132664765774</v>
       </c>
       <c r="D71">
-        <v>-0.01214962473881324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.008943376315516258</v>
+      </c>
+      <c r="E71">
+        <v>-0.06468644865908123</v>
+      </c>
+      <c r="F71">
+        <v>-0.0001775393099371486</v>
+      </c>
+      <c r="G71">
+        <v>0.05576458765057937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09894429516280709</v>
+        <v>-0.1054412078815763</v>
       </c>
       <c r="C72">
-        <v>-0.0411313949317007</v>
+        <v>0.04683616909770835</v>
       </c>
       <c r="D72">
-        <v>-0.003026842029290943</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03837329991866489</v>
+      </c>
+      <c r="E72">
+        <v>-0.02322183347306873</v>
+      </c>
+      <c r="F72">
+        <v>-0.01915988977252704</v>
+      </c>
+      <c r="G72">
+        <v>0.1026806544200421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3824906986462113</v>
+        <v>-0.326572897008834</v>
       </c>
       <c r="C73">
-        <v>-0.04618422959036631</v>
+        <v>0.06376988573933036</v>
       </c>
       <c r="D73">
-        <v>-0.5158569257242653</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4837346041097566</v>
+      </c>
+      <c r="E73">
+        <v>0.4922340403417181</v>
+      </c>
+      <c r="F73">
+        <v>0.2326948819130787</v>
+      </c>
+      <c r="G73">
+        <v>0.01323542255971324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1069556697101557</v>
+        <v>-0.1116861435939523</v>
       </c>
       <c r="C74">
-        <v>-0.09151237320060628</v>
+        <v>0.0907460347037834</v>
       </c>
       <c r="D74">
-        <v>0.05041244219378837</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04482962959339436</v>
+      </c>
+      <c r="E74">
+        <v>-0.05769538251708371</v>
+      </c>
+      <c r="F74">
+        <v>0.01454348942836176</v>
+      </c>
+      <c r="G74">
+        <v>0.04838535378093847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2566007277989498</v>
+        <v>-0.2591422834943655</v>
       </c>
       <c r="C75">
-        <v>-0.08532102012894083</v>
+        <v>0.1197840954765799</v>
       </c>
       <c r="D75">
-        <v>0.153188964724121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1550426087377059</v>
+      </c>
+      <c r="E75">
+        <v>-0.02118270387129636</v>
+      </c>
+      <c r="F75">
+        <v>0.04120288322712718</v>
+      </c>
+      <c r="G75">
+        <v>-0.04234925098232876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1166966614422849</v>
+        <v>-0.1300416841229626</v>
       </c>
       <c r="C76">
-        <v>-0.07673260598183271</v>
+        <v>0.08853335266699786</v>
       </c>
       <c r="D76">
-        <v>0.08011074792609094</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07552253333920959</v>
+      </c>
+      <c r="E76">
+        <v>-0.07998743322408534</v>
+      </c>
+      <c r="F76">
+        <v>-0.01245535961308201</v>
+      </c>
+      <c r="G76">
+        <v>0.036149268868103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08515649718714294</v>
+        <v>-0.06939270149101577</v>
       </c>
       <c r="C77">
-        <v>-0.04245864567950795</v>
+        <v>0.0569717518837392</v>
       </c>
       <c r="D77">
-        <v>-0.0588291314682571</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07243539051672847</v>
+      </c>
+      <c r="E77">
+        <v>-0.09946508510357954</v>
+      </c>
+      <c r="F77">
+        <v>-0.183850119791673</v>
+      </c>
+      <c r="G77">
+        <v>-0.1174567607378285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04881096613191564</v>
+        <v>-0.04865422688460546</v>
       </c>
       <c r="C78">
-        <v>-0.0392213138088975</v>
+        <v>0.05172705204677262</v>
       </c>
       <c r="D78">
-        <v>-0.03730305448270688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0713429763833217</v>
+      </c>
+      <c r="E78">
+        <v>-0.06646984914119604</v>
+      </c>
+      <c r="F78">
+        <v>-0.04988559557023182</v>
+      </c>
+      <c r="G78">
+        <v>0.06653433876035411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.000471135103620898</v>
+        <v>-0.0346800577526403</v>
       </c>
       <c r="C79">
-        <v>-0.00111883413103369</v>
+        <v>0.04948813006534054</v>
       </c>
       <c r="D79">
-        <v>-0.004017683650304601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0822519801289138</v>
+      </c>
+      <c r="E79">
+        <v>-0.07225444393093554</v>
+      </c>
+      <c r="F79">
+        <v>0.02737114028549068</v>
+      </c>
+      <c r="G79">
+        <v>0.03588495312756863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04022826708122346</v>
+        <v>-0.03097412879017476</v>
       </c>
       <c r="C80">
-        <v>-0.05295971725004631</v>
+        <v>0.05161032468636019</v>
       </c>
       <c r="D80">
-        <v>-0.03795322760419184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04701524547836746</v>
+      </c>
+      <c r="E80">
+        <v>-0.01448142224711849</v>
+      </c>
+      <c r="F80">
+        <v>-0.0512247030494456</v>
+      </c>
+      <c r="G80">
+        <v>-0.002751474840526449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1442416697078036</v>
+        <v>-0.1425438397558914</v>
       </c>
       <c r="C81">
-        <v>-0.07144806590068892</v>
+        <v>0.09030451488034991</v>
       </c>
       <c r="D81">
-        <v>0.11911091089246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.12016241884953</v>
+      </c>
+      <c r="E81">
+        <v>-0.0682459254204606</v>
+      </c>
+      <c r="F81">
+        <v>0.01971133322257949</v>
+      </c>
+      <c r="G81">
+        <v>-0.01507187670738744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2052619794662314</v>
+        <v>-0.2329364835829435</v>
       </c>
       <c r="C82">
-        <v>-0.08969435989376905</v>
+        <v>0.1543294332546113</v>
       </c>
       <c r="D82">
-        <v>0.2055901889393091</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2494835329448464</v>
+      </c>
+      <c r="E82">
+        <v>0.03466345386446013</v>
+      </c>
+      <c r="F82">
+        <v>-0.04292830383270238</v>
+      </c>
+      <c r="G82">
+        <v>0.08582429168410259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04394872869967878</v>
+        <v>-0.0301398507506089</v>
       </c>
       <c r="C83">
-        <v>-0.03266692380370248</v>
+        <v>0.04558774665754626</v>
       </c>
       <c r="D83">
-        <v>-0.04150741839620899</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03423687262275805</v>
+      </c>
+      <c r="E83">
+        <v>-0.02535088361562389</v>
+      </c>
+      <c r="F83">
+        <v>-0.02547890595348868</v>
+      </c>
+      <c r="G83">
+        <v>-0.002148544143551203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002021040054283026</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006184791377906599</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0006920206485715435</v>
+      </c>
+      <c r="E84">
+        <v>-0.00310058881785172</v>
+      </c>
+      <c r="F84">
+        <v>0.001545537459700998</v>
+      </c>
+      <c r="G84">
+        <v>4.347404652462486e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2196274824557941</v>
+        <v>-0.2037224777632507</v>
       </c>
       <c r="C85">
-        <v>-0.09305950881127059</v>
+        <v>0.109428790709908</v>
       </c>
       <c r="D85">
-        <v>0.1637601471156863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1311206248935704</v>
+      </c>
+      <c r="E85">
+        <v>0.009025880983646683</v>
+      </c>
+      <c r="F85">
+        <v>0.09876948312885345</v>
+      </c>
+      <c r="G85">
+        <v>0.009104776978586077</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01049357093814899</v>
+        <v>-0.01408932907464394</v>
       </c>
       <c r="C86">
-        <v>-0.02886665063470942</v>
+        <v>0.01771894451830896</v>
       </c>
       <c r="D86">
-        <v>-0.04326142143104798</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07011636574997201</v>
+      </c>
+      <c r="E86">
+        <v>-0.0817398469581907</v>
+      </c>
+      <c r="F86">
+        <v>-0.06942209411066434</v>
+      </c>
+      <c r="G86">
+        <v>0.07195516602624441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03018851117177582</v>
+        <v>-0.03012312867104131</v>
       </c>
       <c r="C87">
-        <v>-0.004648935450723121</v>
+        <v>0.01383352141729003</v>
       </c>
       <c r="D87">
-        <v>-0.07439003133327622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09382536277649599</v>
+      </c>
+      <c r="E87">
+        <v>-0.1283199088957054</v>
+      </c>
+      <c r="F87">
+        <v>-0.07142703206563819</v>
+      </c>
+      <c r="G87">
+        <v>-0.003563033755239747</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1095963215208137</v>
+        <v>-0.09377380475634062</v>
       </c>
       <c r="C88">
-        <v>-0.08434692250877393</v>
+        <v>0.06752161386345748</v>
       </c>
       <c r="D88">
-        <v>0.01542652146035342</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01633445573925358</v>
+      </c>
+      <c r="E88">
+        <v>-0.05211548507619927</v>
+      </c>
+      <c r="F88">
+        <v>-0.03770819818755041</v>
+      </c>
+      <c r="G88">
+        <v>0.02912612065746378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1764371293661108</v>
+        <v>-0.2114140122785225</v>
       </c>
       <c r="C89">
-        <v>0.3801076336168608</v>
+        <v>-0.38468719731747</v>
       </c>
       <c r="D89">
-        <v>0.02737038386512073</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01131491244444285</v>
+      </c>
+      <c r="E89">
+        <v>-0.08003210468895418</v>
+      </c>
+      <c r="F89">
+        <v>-0.08409975284427169</v>
+      </c>
+      <c r="G89">
+        <v>-0.001306162122835715</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1690649327070186</v>
+        <v>-0.1922438505549114</v>
       </c>
       <c r="C90">
-        <v>0.3311346304982813</v>
+        <v>-0.3103745054496213</v>
       </c>
       <c r="D90">
-        <v>0.03577790513171625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01420598326745888</v>
+      </c>
+      <c r="E90">
+        <v>-0.05983289379651138</v>
+      </c>
+      <c r="F90">
+        <v>-0.02286973933835962</v>
+      </c>
+      <c r="G90">
+        <v>0.01236594433804821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1910199472192678</v>
+        <v>-0.1878702464572141</v>
       </c>
       <c r="C91">
-        <v>-0.1215031251023717</v>
+        <v>0.1394255060717078</v>
       </c>
       <c r="D91">
-        <v>0.1373278888320762</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1263271017841688</v>
+      </c>
+      <c r="E91">
+        <v>-0.05092060099829116</v>
+      </c>
+      <c r="F91">
+        <v>0.00925879129750657</v>
+      </c>
+      <c r="G91">
+        <v>-0.005255853412011772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1608242359254478</v>
+        <v>-0.1781996228395699</v>
       </c>
       <c r="C92">
-        <v>0.2974234158238324</v>
+        <v>-0.300236916440026</v>
       </c>
       <c r="D92">
-        <v>0.01833529819593354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009622794991016302</v>
+      </c>
+      <c r="E92">
+        <v>-0.06831508616455939</v>
+      </c>
+      <c r="F92">
+        <v>-0.04781098382919718</v>
+      </c>
+      <c r="G92">
+        <v>0.0275705330015566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1885352442965969</v>
+        <v>-0.2123831046298637</v>
       </c>
       <c r="C93">
-        <v>0.335409207727814</v>
+        <v>-0.3213287716780984</v>
       </c>
       <c r="D93">
-        <v>0.04242384649091124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01746589098870531</v>
+      </c>
+      <c r="E93">
+        <v>-0.04590448874385795</v>
+      </c>
+      <c r="F93">
+        <v>0.004403680708937864</v>
+      </c>
+      <c r="G93">
+        <v>0.03556903643840958</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3531618049156173</v>
+        <v>-0.347987661217914</v>
       </c>
       <c r="C94">
-        <v>-0.1287027499365756</v>
+        <v>0.1740489901015728</v>
       </c>
       <c r="D94">
-        <v>0.4214683012597232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.407236349565433</v>
+      </c>
+      <c r="E94">
+        <v>0.0007534963531219578</v>
+      </c>
+      <c r="F94">
+        <v>0.09511138208808728</v>
+      </c>
+      <c r="G94">
+        <v>-0.4392497265451473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1241470255177905</v>
+        <v>-0.09059768611982427</v>
       </c>
       <c r="C95">
-        <v>-0.04634091223591653</v>
+        <v>0.0529843111624053</v>
       </c>
       <c r="D95">
-        <v>-0.2273094343245377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1943804922836404</v>
+      </c>
+      <c r="E95">
+        <v>0.1524324193749846</v>
+      </c>
+      <c r="F95">
+        <v>-0.7747112149355371</v>
+      </c>
+      <c r="G95">
+        <v>-0.4597604067661777</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.187927402569462</v>
+        <v>-0.1856763638095406</v>
       </c>
       <c r="C98">
-        <v>-0.03014992896818524</v>
+        <v>0.04795825085405965</v>
       </c>
       <c r="D98">
-        <v>-0.1900585703127481</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1980482016214379</v>
+      </c>
+      <c r="E98">
+        <v>0.150771592760543</v>
+      </c>
+      <c r="F98">
+        <v>0.09564067135771304</v>
+      </c>
+      <c r="G98">
+        <v>0.06799443899278337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00884036794378361</v>
+        <v>-0.008049393391432683</v>
       </c>
       <c r="C101">
-        <v>-0.03246125576665886</v>
+        <v>0.02822304259379041</v>
       </c>
       <c r="D101">
-        <v>0.008272828087768342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02373051352999697</v>
+      </c>
+      <c r="E101">
+        <v>-0.06408510405692164</v>
+      </c>
+      <c r="F101">
+        <v>-0.0553297161738483</v>
+      </c>
+      <c r="G101">
+        <v>0.08500487285143341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1224418617937873</v>
+        <v>-0.1255625785038477</v>
       </c>
       <c r="C102">
-        <v>-0.06233654964179788</v>
+        <v>0.09600542887009378</v>
       </c>
       <c r="D102">
-        <v>0.05291929777696315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06153488325940164</v>
+      </c>
+      <c r="E102">
+        <v>0.01395740676472024</v>
+      </c>
+      <c r="F102">
+        <v>-0.02667910744225302</v>
+      </c>
+      <c r="G102">
+        <v>0.003622727526973643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
